--- a/Financials/Yearly/SU_YR_FIN.xlsx
+++ b/Financials/Yearly/SU_YR_FIN.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Sundeep\Stocks_Automation\Financials\Yearly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Yearly\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD174E27-ABC4-437D-96A6-2A674503ECD9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9345"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9348" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SU" sheetId="6" r:id="rId1"/>
@@ -17,12 +18,12 @@
   <definedNames>
     <definedName name="Ticker">#REF!</definedName>
   </definedNames>
-  <calcPr calcId="152511" calcMode="manual"/>
+  <calcPr calcId="152511" calcMode="manual" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="92">
   <si>
     <t>SU</t>
   </si>
@@ -303,9 +304,9 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="[$-409]d\-mmm\-yy;@"/>
+    <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -347,7 +348,7 @@
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -444,6 +445,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -479,6 +497,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -654,140 +689,152 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:K102"/>
+  <dimension ref="A5:L102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="4.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="69.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="11" width="14.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43465</v>
+      </c>
+      <c r="E7" s="2">
         <v>43100</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>42735</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>42369</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>42004</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>41639</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>41274</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>40908</v>
       </c>
-      <c r="K7" s="2"/>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L7" s="2"/>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>24622500</v>
+        <v>28683300</v>
       </c>
       <c r="E8" s="3">
-        <v>20593900</v>
+        <v>23780500</v>
       </c>
       <c r="F8" s="3">
-        <v>22438500</v>
+        <v>19950000</v>
       </c>
       <c r="G8" s="3">
-        <v>30623200</v>
+        <v>21736900</v>
       </c>
       <c r="H8" s="3">
-        <v>30481800</v>
+        <v>29665700</v>
       </c>
       <c r="I8" s="3">
-        <v>29344800</v>
+        <v>29528800</v>
       </c>
       <c r="J8" s="3">
+        <v>28427300</v>
+      </c>
+      <c r="K8" s="3">
         <v>29453200</v>
       </c>
-      <c r="K8" s="3"/>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L8" s="3"/>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>8543500</v>
+        <v>10517900</v>
       </c>
       <c r="E9" s="3">
-        <v>7587800</v>
+        <v>8276400</v>
       </c>
       <c r="F9" s="3">
-        <v>8903800</v>
+        <v>7350600</v>
       </c>
       <c r="G9" s="3">
-        <v>13465500</v>
+        <v>8625400</v>
       </c>
       <c r="H9" s="3">
-        <v>13285000</v>
+        <v>13044500</v>
       </c>
       <c r="I9" s="3">
-        <v>13096000</v>
+        <v>12869600</v>
       </c>
       <c r="J9" s="3">
+        <v>12686500</v>
+      </c>
+      <c r="K9" s="3">
         <v>13616900</v>
       </c>
-      <c r="K9" s="3"/>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L9" s="3"/>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>16079100</v>
+        <v>18165400</v>
       </c>
       <c r="E10" s="3">
-        <v>13006100</v>
+        <v>15504100</v>
       </c>
       <c r="F10" s="3">
-        <v>13534700</v>
+        <v>12599500</v>
       </c>
       <c r="G10" s="3">
-        <v>17157600</v>
+        <v>13111500</v>
       </c>
       <c r="H10" s="3">
-        <v>17196800</v>
+        <v>16621200</v>
       </c>
       <c r="I10" s="3">
-        <v>16248800</v>
+        <v>16659100</v>
       </c>
       <c r="J10" s="3">
+        <v>15740800</v>
+      </c>
+      <c r="K10" s="3">
         <v>15836300</v>
       </c>
-      <c r="K10" s="3"/>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L10" s="3"/>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -799,35 +846,39 @@
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L11" s="3"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>79900</v>
+        <v>90800</v>
       </c>
       <c r="E12" s="3">
-        <v>222000</v>
+        <v>77400</v>
       </c>
       <c r="F12" s="3">
-        <v>367200</v>
+        <v>215100</v>
       </c>
       <c r="G12" s="3">
-        <v>281900</v>
+        <v>355700</v>
       </c>
       <c r="H12" s="3">
-        <v>247400</v>
+        <v>273100</v>
       </c>
       <c r="I12" s="3">
-        <v>237400</v>
+        <v>239600</v>
       </c>
       <c r="J12" s="3">
+        <v>230000</v>
+      </c>
+      <c r="K12" s="3">
         <v>89100</v>
       </c>
-      <c r="K12" s="3"/>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L12" s="3"/>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -852,63 +903,72 @@
       <c r="J13" s="3">
         <v>0</v>
       </c>
-      <c r="K13" s="3"/>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K13" s="3">
+        <v>0</v>
+      </c>
+      <c r="L13" s="3"/>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
-        <v>116800</v>
+        <v>-7400</v>
       </c>
       <c r="E14" s="3">
-        <v>28400</v>
+        <v>113100</v>
       </c>
       <c r="F14" s="3">
-        <v>-33000</v>
+        <v>27500</v>
       </c>
       <c r="G14" s="3">
-        <v>46900</v>
+        <v>-32000</v>
       </c>
       <c r="H14" s="3">
-        <v>-11500</v>
+        <v>45400</v>
       </c>
       <c r="I14" s="3">
-        <v>10000</v>
-      </c>
-      <c r="J14" s="3" t="s">
+        <v>-11200</v>
+      </c>
+      <c r="J14" s="3">
+        <v>9700</v>
+      </c>
+      <c r="K14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="K14" s="3"/>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L14" s="3"/>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>4302900</v>
+        <v>4270300</v>
       </c>
       <c r="E15" s="3">
-        <v>4699300</v>
+        <v>4168300</v>
       </c>
       <c r="F15" s="3">
-        <v>5761700</v>
+        <v>4552300</v>
       </c>
       <c r="G15" s="3">
-        <v>4716900</v>
+        <v>5581600</v>
       </c>
       <c r="H15" s="3">
-        <v>3758200</v>
+        <v>4569400</v>
       </c>
       <c r="I15" s="3">
-        <v>4952000</v>
+        <v>3640700</v>
       </c>
       <c r="J15" s="3">
+        <v>4797200</v>
+      </c>
+      <c r="K15" s="3">
         <v>3036000</v>
       </c>
-      <c r="K15" s="3"/>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L15" s="3"/>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -917,62 +977,69 @@
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
-    </row>
-    <row r="17" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L16" s="3"/>
+    </row>
+    <row r="17" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>21131700</v>
+        <v>23919700</v>
       </c>
       <c r="E17" s="3">
-        <v>20597000</v>
+        <v>20398800</v>
       </c>
       <c r="F17" s="3">
-        <v>22596700</v>
+        <v>19953000</v>
       </c>
       <c r="G17" s="3">
-        <v>26749800</v>
+        <v>21890200</v>
       </c>
       <c r="H17" s="3">
-        <v>25407700</v>
+        <v>25913400</v>
       </c>
       <c r="I17" s="3">
-        <v>25842500</v>
+        <v>24613300</v>
       </c>
       <c r="J17" s="3">
+        <v>25034500</v>
+      </c>
+      <c r="K17" s="3">
         <v>23904200</v>
       </c>
-      <c r="K17" s="3"/>
-    </row>
-    <row r="18" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L17" s="3"/>
+    </row>
+    <row r="18" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>3490800</v>
+        <v>4763700</v>
       </c>
       <c r="E18" s="3">
-        <v>-3100</v>
+        <v>3381700</v>
       </c>
       <c r="F18" s="3">
-        <v>-158300</v>
+        <v>-3000</v>
       </c>
       <c r="G18" s="3">
-        <v>3873400</v>
+        <v>-153300</v>
       </c>
       <c r="H18" s="3">
-        <v>5074200</v>
+        <v>3752300</v>
       </c>
       <c r="I18" s="3">
-        <v>3502400</v>
+        <v>4915500</v>
       </c>
       <c r="J18" s="3">
+        <v>3392900</v>
+      </c>
+      <c r="K18" s="3">
         <v>5548900</v>
       </c>
-      <c r="K18" s="3"/>
-    </row>
-    <row r="19" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L18" s="3"/>
+    </row>
+    <row r="19" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -984,143 +1051,159 @@
       <c r="I19" s="3"/>
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
-    </row>
-    <row r="20" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L19" s="3"/>
+    </row>
+    <row r="20" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>1268300</v>
+        <v>-462200</v>
       </c>
       <c r="E20" s="3">
-        <v>433300</v>
+        <v>1228700</v>
       </c>
       <c r="F20" s="3">
-        <v>-1034000</v>
+        <v>419700</v>
       </c>
       <c r="G20" s="3">
-        <v>-68400</v>
+        <v>-1001700</v>
       </c>
       <c r="H20" s="3">
-        <v>111400</v>
+        <v>-66200</v>
       </c>
       <c r="I20" s="3">
-        <v>921900</v>
+        <v>107900</v>
       </c>
       <c r="J20" s="3">
+        <v>893100</v>
+      </c>
+      <c r="K20" s="3">
         <v>-39900</v>
       </c>
-      <c r="K20" s="3"/>
-    </row>
-    <row r="21" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L20" s="3"/>
+    </row>
+    <row r="21" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>9082600</v>
+        <v>8580800</v>
       </c>
       <c r="E21" s="3">
-        <v>5151900</v>
+        <v>8787400</v>
       </c>
       <c r="F21" s="3">
-        <v>4597000</v>
+        <v>4978600</v>
       </c>
       <c r="G21" s="3">
-        <v>8544500</v>
+        <v>4438300</v>
       </c>
       <c r="H21" s="3">
-        <v>8961700</v>
+        <v>8265100</v>
       </c>
       <c r="I21" s="3">
-        <v>9399900</v>
+        <v>8671700</v>
       </c>
       <c r="J21" s="3">
+        <v>9093100</v>
+      </c>
+      <c r="K21" s="3">
         <v>8559500</v>
       </c>
-      <c r="K21" s="3"/>
-    </row>
-    <row r="22" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L21" s="3"/>
+    </row>
+    <row r="22" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>214300</v>
+        <v>593100</v>
       </c>
       <c r="E22" s="3">
-        <v>364100</v>
+        <v>207600</v>
       </c>
       <c r="F22" s="3">
-        <v>364900</v>
+        <v>352800</v>
       </c>
       <c r="G22" s="3">
-        <v>278900</v>
+        <v>353500</v>
       </c>
       <c r="H22" s="3">
-        <v>287300</v>
+        <v>270100</v>
       </c>
       <c r="I22" s="3">
-        <v>595400</v>
+        <v>278300</v>
       </c>
       <c r="J22" s="3">
+        <v>576800</v>
+      </c>
+      <c r="K22" s="3">
         <v>78400</v>
       </c>
-      <c r="K22" s="3"/>
-    </row>
-    <row r="23" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L22" s="3"/>
+    </row>
+    <row r="23" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>4544800</v>
+        <v>3708400</v>
       </c>
       <c r="E23" s="3">
-        <v>66100</v>
+        <v>4402700</v>
       </c>
       <c r="F23" s="3">
-        <v>-1557200</v>
+        <v>64000</v>
       </c>
       <c r="G23" s="3">
-        <v>3526200</v>
+        <v>-1508500</v>
       </c>
       <c r="H23" s="3">
-        <v>4898200</v>
+        <v>3415900</v>
       </c>
       <c r="I23" s="3">
-        <v>3828900</v>
+        <v>4745100</v>
       </c>
       <c r="J23" s="3">
+        <v>3709100</v>
+      </c>
+      <c r="K23" s="3">
         <v>5430600</v>
       </c>
-      <c r="K23" s="3"/>
-    </row>
-    <row r="24" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L23" s="3"/>
+    </row>
+    <row r="24" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>1120100</v>
+        <v>1257700</v>
       </c>
       <c r="E24" s="3">
-        <v>-275800</v>
+        <v>1085100</v>
       </c>
       <c r="F24" s="3">
-        <v>-24600</v>
+        <v>-267200</v>
       </c>
       <c r="G24" s="3">
-        <v>1452700</v>
+        <v>-23800</v>
       </c>
       <c r="H24" s="3">
-        <v>1893700</v>
+        <v>1407300</v>
       </c>
       <c r="I24" s="3">
-        <v>1723900</v>
+        <v>1834500</v>
       </c>
       <c r="J24" s="3">
+        <v>1670000</v>
+      </c>
+      <c r="K24" s="3">
         <v>2124200</v>
       </c>
-      <c r="K24" s="3"/>
-    </row>
-    <row r="25" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L24" s="3"/>
+    </row>
+    <row r="25" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1145,63 +1228,72 @@
       <c r="J25" s="3">
         <v>0</v>
       </c>
-      <c r="K25" s="3"/>
-    </row>
-    <row r="26" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K25" s="3">
+        <v>0</v>
+      </c>
+      <c r="L25" s="3"/>
+    </row>
+    <row r="26" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>3424800</v>
+        <v>2450700</v>
       </c>
       <c r="E26" s="3">
-        <v>341900</v>
+        <v>3317700</v>
       </c>
       <c r="F26" s="3">
-        <v>-1532600</v>
+        <v>331200</v>
       </c>
       <c r="G26" s="3">
-        <v>2073500</v>
+        <v>-1484700</v>
       </c>
       <c r="H26" s="3">
-        <v>3004500</v>
+        <v>2008600</v>
       </c>
       <c r="I26" s="3">
-        <v>2105000</v>
+        <v>2910600</v>
       </c>
       <c r="J26" s="3">
+        <v>2039100</v>
+      </c>
+      <c r="K26" s="3">
         <v>3306500</v>
       </c>
-      <c r="K26" s="3"/>
-    </row>
-    <row r="27" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L26" s="3"/>
+    </row>
+    <row r="27" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>3424800</v>
+        <v>2450700</v>
       </c>
       <c r="E27" s="3">
-        <v>333400</v>
+        <v>3317700</v>
       </c>
       <c r="F27" s="3">
-        <v>-1532600</v>
+        <v>323000</v>
       </c>
       <c r="G27" s="3">
-        <v>2073500</v>
+        <v>-1484700</v>
       </c>
       <c r="H27" s="3">
-        <v>3004500</v>
+        <v>2008600</v>
       </c>
       <c r="I27" s="3">
-        <v>2105000</v>
+        <v>2910600</v>
       </c>
       <c r="J27" s="3">
+        <v>2039100</v>
+      </c>
+      <c r="K27" s="3">
         <v>3306500</v>
       </c>
-      <c r="K27" s="3"/>
-    </row>
-    <row r="28" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L27" s="3"/>
+    </row>
+    <row r="28" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1226,9 +1318,12 @@
       <c r="J28" s="3">
         <v>0</v>
       </c>
-      <c r="K28" s="3"/>
-    </row>
-    <row r="29" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K28" s="3">
+        <v>0</v>
+      </c>
+      <c r="L28" s="3"/>
+    </row>
+    <row r="29" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1253,9 +1348,12 @@
       <c r="J29" s="3">
         <v>0</v>
       </c>
-      <c r="K29" s="3"/>
-    </row>
-    <row r="30" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K29" s="3">
+        <v>0</v>
+      </c>
+      <c r="L29" s="3"/>
+    </row>
+    <row r="30" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1280,9 +1378,12 @@
       <c r="J30" s="3">
         <v>0</v>
       </c>
-      <c r="K30" s="3"/>
-    </row>
-    <row r="31" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K30" s="3">
+        <v>0</v>
+      </c>
+      <c r="L30" s="3"/>
+    </row>
+    <row r="31" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1307,63 +1408,72 @@
       <c r="J31" s="3">
         <v>0</v>
       </c>
-      <c r="K31" s="3"/>
-    </row>
-    <row r="32" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K31" s="3">
+        <v>0</v>
+      </c>
+      <c r="L31" s="3"/>
+    </row>
+    <row r="32" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-1268300</v>
+        <v>462200</v>
       </c>
       <c r="E32" s="3">
-        <v>-433300</v>
+        <v>-1228700</v>
       </c>
       <c r="F32" s="3">
-        <v>1034000</v>
+        <v>-419700</v>
       </c>
       <c r="G32" s="3">
-        <v>68400</v>
+        <v>1001700</v>
       </c>
       <c r="H32" s="3">
-        <v>-111400</v>
+        <v>66200</v>
       </c>
       <c r="I32" s="3">
-        <v>-921900</v>
+        <v>-107900</v>
       </c>
       <c r="J32" s="3">
+        <v>-893100</v>
+      </c>
+      <c r="K32" s="3">
         <v>39900</v>
       </c>
-      <c r="K32" s="3"/>
-    </row>
-    <row r="33" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L32" s="3"/>
+    </row>
+    <row r="33" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>3424800</v>
+        <v>2450700</v>
       </c>
       <c r="E33" s="3">
-        <v>333400</v>
+        <v>3317700</v>
       </c>
       <c r="F33" s="3">
-        <v>-1532600</v>
+        <v>323000</v>
       </c>
       <c r="G33" s="3">
-        <v>2073500</v>
+        <v>-1484700</v>
       </c>
       <c r="H33" s="3">
-        <v>3004500</v>
+        <v>2008600</v>
       </c>
       <c r="I33" s="3">
-        <v>2105000</v>
+        <v>2910600</v>
       </c>
       <c r="J33" s="3">
+        <v>2039100</v>
+      </c>
+      <c r="K33" s="3">
         <v>3306500</v>
       </c>
-      <c r="K33" s="3"/>
-    </row>
-    <row r="34" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L33" s="3"/>
+    </row>
+    <row r="34" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1388,68 +1498,77 @@
       <c r="J34" s="3">
         <v>0</v>
       </c>
-      <c r="K34" s="3"/>
-    </row>
-    <row r="35" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K34" s="3">
+        <v>0</v>
+      </c>
+      <c r="L34" s="3"/>
+    </row>
+    <row r="35" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>3424800</v>
+        <v>2450700</v>
       </c>
       <c r="E35" s="3">
-        <v>333400</v>
+        <v>3317700</v>
       </c>
       <c r="F35" s="3">
-        <v>-1532600</v>
+        <v>323000</v>
       </c>
       <c r="G35" s="3">
-        <v>2073500</v>
+        <v>-1484700</v>
       </c>
       <c r="H35" s="3">
-        <v>3004500</v>
+        <v>2008600</v>
       </c>
       <c r="I35" s="3">
-        <v>2105000</v>
+        <v>2910600</v>
       </c>
       <c r="J35" s="3">
+        <v>2039100</v>
+      </c>
+      <c r="K35" s="3">
         <v>3306500</v>
       </c>
-      <c r="K35" s="3"/>
-    </row>
-    <row r="37" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L35" s="3"/>
+    </row>
+    <row r="37" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43465</v>
+      </c>
+      <c r="E38" s="2">
         <v>43100</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>42735</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>42369</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>42004</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>41639</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>41274</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>40908</v>
       </c>
-      <c r="K38" s="2"/>
-    </row>
-    <row r="39" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L38" s="2"/>
+    </row>
+    <row r="39" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1461,8 +1580,9 @@
       <c r="I39" s="3"/>
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
-    </row>
-    <row r="40" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L39" s="3"/>
+    </row>
+    <row r="40" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1474,35 +1594,39 @@
       <c r="I40" s="3"/>
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
-    </row>
-    <row r="41" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L40" s="3"/>
+    </row>
+    <row r="41" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>2052700</v>
+        <v>1652900</v>
       </c>
       <c r="E41" s="3">
-        <v>2317000</v>
+        <v>1988500</v>
       </c>
       <c r="F41" s="3">
-        <v>3110600</v>
+        <v>2244500</v>
       </c>
       <c r="G41" s="3">
-        <v>4221400</v>
+        <v>3013300</v>
       </c>
       <c r="H41" s="3">
-        <v>3996300</v>
+        <v>4089400</v>
       </c>
       <c r="I41" s="3">
-        <v>3857300</v>
+        <v>3871400</v>
       </c>
       <c r="J41" s="3">
+        <v>3736700</v>
+      </c>
+      <c r="K41" s="3">
         <v>2921600</v>
       </c>
-      <c r="K41" s="3"/>
-    </row>
-    <row r="42" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L41" s="3"/>
+    </row>
+    <row r="42" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1527,74 +1651,83 @@
       <c r="J42" s="3">
         <v>0</v>
       </c>
-      <c r="K42" s="3"/>
-    </row>
-    <row r="43" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K42" s="3">
+        <v>0</v>
+      </c>
+      <c r="L42" s="3"/>
+    </row>
+    <row r="43" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>2640400</v>
+        <v>2470800</v>
       </c>
       <c r="E43" s="3">
-        <v>2733400</v>
+        <v>2557800</v>
       </c>
       <c r="F43" s="3">
-        <v>2526700</v>
+        <v>2647900</v>
       </c>
       <c r="G43" s="3">
-        <v>3806600</v>
+        <v>2447700</v>
       </c>
       <c r="H43" s="3">
-        <v>4262100</v>
+        <v>3687600</v>
       </c>
       <c r="I43" s="3">
-        <v>4609400</v>
+        <v>4128900</v>
       </c>
       <c r="J43" s="3">
+        <v>4465300</v>
+      </c>
+      <c r="K43" s="3">
         <v>4698500</v>
       </c>
-      <c r="K43" s="3"/>
-    </row>
-    <row r="44" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L43" s="3"/>
+    </row>
+    <row r="44" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>2664200</v>
+        <v>2351000</v>
       </c>
       <c r="E44" s="3">
-        <v>2489100</v>
+        <v>2580900</v>
       </c>
       <c r="F44" s="3">
-        <v>2373800</v>
+        <v>2411200</v>
       </c>
       <c r="G44" s="3">
-        <v>2662700</v>
+        <v>2299600</v>
       </c>
       <c r="H44" s="3">
-        <v>3029900</v>
+        <v>2579400</v>
       </c>
       <c r="I44" s="3">
-        <v>3678300</v>
+        <v>2935200</v>
       </c>
       <c r="J44" s="3">
+        <v>3563300</v>
+      </c>
+      <c r="K44" s="3">
         <v>3230400</v>
       </c>
-      <c r="K44" s="3"/>
-    </row>
-    <row r="45" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L44" s="3"/>
+    </row>
+    <row r="45" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="D45" s="3">
-        <v>0</v>
+      <c r="D45" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="E45" s="3">
-        <v>925700</v>
-      </c>
-      <c r="F45" s="3" t="s">
-        <v>10</v>
+        <v>0</v>
+      </c>
+      <c r="F45" s="3">
+        <v>896800</v>
       </c>
       <c r="G45" s="3" t="s">
         <v>10</v>
@@ -1605,53 +1738,59 @@
       <c r="I45" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="J45" s="3">
-        <v>0</v>
-      </c>
-      <c r="K45" s="3"/>
-    </row>
-    <row r="46" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="J45" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="K45" s="3">
+        <v>0</v>
+      </c>
+      <c r="L45" s="3"/>
+    </row>
+    <row r="46" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>7357300</v>
+        <v>6474600</v>
       </c>
       <c r="E46" s="3">
-        <v>8465100</v>
+        <v>7127300</v>
       </c>
       <c r="F46" s="3">
-        <v>8011100</v>
+        <v>8200400</v>
       </c>
       <c r="G46" s="3">
-        <v>10690700</v>
+        <v>7760600</v>
       </c>
       <c r="H46" s="3">
-        <v>11288400</v>
+        <v>10356400</v>
       </c>
       <c r="I46" s="3">
-        <v>10818200</v>
+        <v>10935400</v>
       </c>
       <c r="J46" s="3">
+        <v>10480000</v>
+      </c>
+      <c r="K46" s="3">
         <v>10850500</v>
       </c>
-      <c r="K46" s="3"/>
-    </row>
-    <row r="47" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L46" s="3"/>
+    </row>
+    <row r="47" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>172100</v>
+        <v>176400</v>
       </c>
       <c r="E47" s="3">
-        <v>146700</v>
+        <v>166700</v>
       </c>
       <c r="F47" s="3">
-        <v>162100</v>
-      </c>
-      <c r="G47" s="3" t="s">
-        <v>10</v>
+        <v>142100</v>
+      </c>
+      <c r="G47" s="3">
+        <v>157000</v>
       </c>
       <c r="H47" s="3" t="s">
         <v>10</v>
@@ -1662,63 +1801,72 @@
       <c r="J47" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="K47" s="3"/>
-    </row>
-    <row r="48" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K47" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="L47" s="3"/>
+    </row>
+    <row r="48" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>58035900</v>
+        <v>56979700</v>
       </c>
       <c r="E48" s="3">
-        <v>56309000</v>
+        <v>56221300</v>
       </c>
       <c r="F48" s="3">
-        <v>48269400</v>
+        <v>54548400</v>
       </c>
       <c r="G48" s="3">
-        <v>47667100</v>
+        <v>46760200</v>
       </c>
       <c r="H48" s="3">
-        <v>46126100</v>
+        <v>46176700</v>
       </c>
       <c r="I48" s="3">
-        <v>86765400</v>
+        <v>44683900</v>
       </c>
       <c r="J48" s="3">
+        <v>84052600</v>
+      </c>
+      <c r="K48" s="3">
         <v>43899000</v>
       </c>
-      <c r="K48" s="3"/>
-    </row>
-    <row r="49" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L48" s="3"/>
+    </row>
+    <row r="49" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>2351600</v>
+        <v>2278000</v>
       </c>
       <c r="E49" s="3">
-        <v>2362300</v>
+        <v>2278000</v>
       </c>
       <c r="F49" s="3">
-        <v>2365400</v>
+        <v>2288400</v>
       </c>
       <c r="G49" s="3">
-        <v>2711900</v>
+        <v>2291400</v>
       </c>
       <c r="H49" s="3">
-        <v>2625000</v>
+        <v>2627100</v>
       </c>
       <c r="I49" s="3">
-        <v>2622000</v>
+        <v>2543000</v>
       </c>
       <c r="J49" s="3">
+        <v>2540000</v>
+      </c>
+      <c r="K49" s="3">
         <v>2411500</v>
       </c>
-      <c r="K49" s="3"/>
-    </row>
-    <row r="50" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L49" s="3"/>
+    </row>
+    <row r="50" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1743,9 +1891,12 @@
       <c r="J50" s="3">
         <v>0</v>
       </c>
-      <c r="K50" s="3"/>
-    </row>
-    <row r="51" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K50" s="3">
+        <v>0</v>
+      </c>
+      <c r="L50" s="3"/>
+    </row>
+    <row r="51" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1770,36 +1921,42 @@
       <c r="J51" s="3">
         <v>0</v>
       </c>
-      <c r="K51" s="3"/>
-    </row>
-    <row r="52" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K51" s="3">
+        <v>0</v>
+      </c>
+      <c r="L51" s="3"/>
+    </row>
+    <row r="52" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>835100</v>
+        <v>756900</v>
       </c>
       <c r="E52" s="3">
-        <v>860400</v>
+        <v>809000</v>
       </c>
       <c r="F52" s="3">
-        <v>750600</v>
+        <v>833500</v>
       </c>
       <c r="G52" s="3">
-        <v>136000</v>
+        <v>727100</v>
       </c>
       <c r="H52" s="3">
-        <v>124500</v>
+        <v>131700</v>
       </c>
       <c r="I52" s="3">
-        <v>200500</v>
+        <v>120600</v>
       </c>
       <c r="J52" s="3">
+        <v>194200</v>
+      </c>
+      <c r="K52" s="3">
         <v>285000</v>
       </c>
-      <c r="K52" s="3"/>
-    </row>
-    <row r="53" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L52" s="3"/>
+    </row>
+    <row r="53" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -1824,36 +1981,42 @@
       <c r="J53" s="3">
         <v>0</v>
       </c>
-      <c r="K53" s="3"/>
-    </row>
-    <row r="54" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K53" s="3">
+        <v>0</v>
+      </c>
+      <c r="L53" s="3"/>
+    </row>
+    <row r="54" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>68752000</v>
+        <v>66665600</v>
       </c>
       <c r="E54" s="3">
-        <v>68143500</v>
+        <v>66602300</v>
       </c>
       <c r="F54" s="3">
-        <v>59558600</v>
+        <v>66012900</v>
       </c>
       <c r="G54" s="3">
-        <v>61205700</v>
+        <v>57696400</v>
       </c>
       <c r="H54" s="3">
-        <v>60163900</v>
+        <v>59292000</v>
       </c>
       <c r="I54" s="3">
-        <v>58693500</v>
+        <v>58282800</v>
       </c>
       <c r="J54" s="3">
+        <v>56858400</v>
+      </c>
+      <c r="K54" s="3">
         <v>57445900</v>
       </c>
-      <c r="K54" s="3"/>
-    </row>
-    <row r="55" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L54" s="3"/>
+    </row>
+    <row r="55" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -1865,8 +2028,9 @@
       <c r="I55" s="3"/>
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
-    </row>
-    <row r="56" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L55" s="3"/>
+    </row>
+    <row r="56" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -1878,170 +2042,189 @@
       <c r="I56" s="3"/>
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
-    </row>
-    <row r="57" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L56" s="3"/>
+    </row>
+    <row r="57" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>4765300</v>
+        <v>4202600</v>
       </c>
       <c r="E57" s="3">
-        <v>4292900</v>
+        <v>4616300</v>
       </c>
       <c r="F57" s="3">
-        <v>4076200</v>
+        <v>4158600</v>
       </c>
       <c r="G57" s="3">
-        <v>4382000</v>
+        <v>3948800</v>
       </c>
       <c r="H57" s="3">
-        <v>5446800</v>
+        <v>4245000</v>
       </c>
       <c r="I57" s="3">
-        <v>4952000</v>
+        <v>5276400</v>
       </c>
       <c r="J57" s="3">
+        <v>4797200</v>
+      </c>
+      <c r="K57" s="3">
         <v>5957600</v>
       </c>
-      <c r="K57" s="3"/>
-    </row>
-    <row r="58" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L57" s="3"/>
+    </row>
+    <row r="58" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>1695500</v>
+        <v>2575000</v>
       </c>
       <c r="E58" s="3">
-        <v>1019400</v>
+        <v>1642500</v>
       </c>
       <c r="F58" s="3">
-        <v>627600</v>
+        <v>987600</v>
       </c>
       <c r="G58" s="3">
-        <v>645300</v>
+        <v>608000</v>
       </c>
       <c r="H58" s="3">
-        <v>964100</v>
+        <v>625100</v>
       </c>
       <c r="I58" s="3">
-        <v>834300</v>
+        <v>934000</v>
       </c>
       <c r="J58" s="3">
+        <v>808200</v>
+      </c>
+      <c r="K58" s="3">
         <v>593800</v>
       </c>
-      <c r="K58" s="3"/>
-    </row>
-    <row r="59" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L58" s="3"/>
+    </row>
+    <row r="59" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>881200</v>
+        <v>894500</v>
       </c>
       <c r="E59" s="3">
-        <v>923400</v>
+        <v>853600</v>
       </c>
       <c r="F59" s="3">
-        <v>778200</v>
+        <v>894500</v>
       </c>
       <c r="G59" s="3">
-        <v>1390500</v>
+        <v>753900</v>
       </c>
       <c r="H59" s="3">
-        <v>1737000</v>
+        <v>1347000</v>
       </c>
       <c r="I59" s="3">
-        <v>1553400</v>
+        <v>1682700</v>
       </c>
       <c r="J59" s="3">
+        <v>1504800</v>
+      </c>
+      <c r="K59" s="3">
         <v>1369000</v>
       </c>
-      <c r="K59" s="3"/>
-    </row>
-    <row r="60" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L59" s="3"/>
+    </row>
+    <row r="60" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>7342000</v>
+        <v>7672100</v>
       </c>
       <c r="E60" s="3">
-        <v>6235700</v>
+        <v>7112400</v>
       </c>
       <c r="F60" s="3">
-        <v>5482100</v>
+        <v>6040800</v>
       </c>
       <c r="G60" s="3">
-        <v>6417800</v>
+        <v>5310700</v>
       </c>
       <c r="H60" s="3">
-        <v>8147800</v>
+        <v>6217100</v>
       </c>
       <c r="I60" s="3">
-        <v>7338900</v>
+        <v>7893100</v>
       </c>
       <c r="J60" s="3">
+        <v>7109400</v>
+      </c>
+      <c r="K60" s="3">
         <v>7920500</v>
       </c>
-      <c r="K60" s="3"/>
-    </row>
-    <row r="61" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L60" s="3"/>
+    </row>
+    <row r="61" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>10272800</v>
+        <v>10337100</v>
       </c>
       <c r="E61" s="3">
-        <v>12370800</v>
+        <v>9951600</v>
       </c>
       <c r="F61" s="3">
-        <v>11128600</v>
+        <v>11984000</v>
       </c>
       <c r="G61" s="3">
-        <v>9594400</v>
+        <v>10780600</v>
       </c>
       <c r="H61" s="3">
-        <v>7838300</v>
+        <v>9294400</v>
       </c>
       <c r="I61" s="3">
-        <v>7634700</v>
+        <v>7593200</v>
       </c>
       <c r="J61" s="3">
+        <v>7396000</v>
+      </c>
+      <c r="K61" s="3">
         <v>7685400</v>
       </c>
-      <c r="K61" s="3"/>
-    </row>
-    <row r="62" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L61" s="3"/>
+    </row>
+    <row r="62" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>16272600</v>
+        <v>15907500</v>
       </c>
       <c r="E62" s="3">
-        <v>15250900</v>
+        <v>15763900</v>
       </c>
       <c r="F62" s="3">
-        <v>12957000</v>
+        <v>14774100</v>
       </c>
       <c r="G62" s="3">
-        <v>13232800</v>
+        <v>12551800</v>
       </c>
       <c r="H62" s="3">
-        <v>12542100</v>
+        <v>12819000</v>
       </c>
       <c r="I62" s="3">
-        <v>15309300</v>
+        <v>12150000</v>
       </c>
       <c r="J62" s="3">
+        <v>14830600</v>
+      </c>
+      <c r="K62" s="3">
         <v>12186400</v>
       </c>
-      <c r="K62" s="3"/>
-    </row>
-    <row r="63" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L62" s="3"/>
+    </row>
+    <row r="63" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2066,9 +2249,12 @@
       <c r="J63" s="3">
         <v>0</v>
       </c>
-      <c r="K63" s="3"/>
-    </row>
-    <row r="64" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K63" s="3">
+        <v>0</v>
+      </c>
+      <c r="L63" s="3"/>
+    </row>
+    <row r="64" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2093,9 +2279,12 @@
       <c r="J64" s="3">
         <v>0</v>
       </c>
-      <c r="K64" s="3"/>
-    </row>
-    <row r="65" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K64" s="3">
+        <v>0</v>
+      </c>
+      <c r="L64" s="3"/>
+    </row>
+    <row r="65" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2120,36 +2309,42 @@
       <c r="J65" s="3">
         <v>0</v>
       </c>
-      <c r="K65" s="3"/>
-    </row>
-    <row r="66" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K65" s="3">
+        <v>0</v>
+      </c>
+      <c r="L65" s="3"/>
+    </row>
+    <row r="66" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>33887400</v>
+        <v>33916600</v>
       </c>
       <c r="E66" s="3">
-        <v>33857400</v>
+        <v>32827800</v>
       </c>
       <c r="F66" s="3">
-        <v>29567600</v>
+        <v>32798800</v>
       </c>
       <c r="G66" s="3">
-        <v>29245000</v>
+        <v>28643200</v>
       </c>
       <c r="H66" s="3">
-        <v>28528200</v>
+        <v>28330600</v>
       </c>
       <c r="I66" s="3">
-        <v>28567400</v>
+        <v>27636200</v>
       </c>
       <c r="J66" s="3">
+        <v>27674200</v>
+      </c>
+      <c r="K66" s="3">
         <v>27792300</v>
       </c>
-      <c r="K66" s="3"/>
-    </row>
-    <row r="67" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L66" s="3"/>
+    </row>
+    <row r="67" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2161,8 +2356,9 @@
       <c r="I67" s="3"/>
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
-    </row>
-    <row r="68" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L67" s="3"/>
+    </row>
+    <row r="68" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2187,9 +2383,12 @@
       <c r="J68" s="3">
         <v>0</v>
       </c>
-      <c r="K68" s="3"/>
-    </row>
-    <row r="69" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K68" s="3">
+        <v>0</v>
+      </c>
+      <c r="L68" s="3"/>
+    </row>
+    <row r="69" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2214,9 +2413,12 @@
       <c r="J69" s="3">
         <v>0</v>
       </c>
-      <c r="K69" s="3"/>
-    </row>
-    <row r="70" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K69" s="3">
+        <v>0</v>
+      </c>
+      <c r="L69" s="3"/>
+    </row>
+    <row r="70" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2241,9 +2443,12 @@
       <c r="J70" s="3">
         <v>0</v>
       </c>
-      <c r="K70" s="3"/>
-    </row>
-    <row r="71" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K70" s="3">
+        <v>0</v>
+      </c>
+      <c r="L70" s="3"/>
+    </row>
+    <row r="71" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2268,36 +2473,42 @@
       <c r="J71" s="3">
         <v>0</v>
       </c>
-      <c r="K71" s="3"/>
-    </row>
-    <row r="72" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K71" s="3">
+        <v>0</v>
+      </c>
+      <c r="L71" s="3"/>
+    </row>
+    <row r="72" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>13368000</v>
+        <v>12263800</v>
       </c>
       <c r="E72" s="3">
-        <v>12363100</v>
+        <v>12950000</v>
       </c>
       <c r="F72" s="3">
-        <v>13578500</v>
+        <v>11976600</v>
       </c>
       <c r="G72" s="3">
-        <v>16270300</v>
+        <v>13153900</v>
       </c>
       <c r="H72" s="3">
-        <v>16188100</v>
+        <v>15761600</v>
       </c>
       <c r="I72" s="3">
-        <v>14520300</v>
+        <v>15682000</v>
       </c>
       <c r="J72" s="3">
+        <v>14066300</v>
+      </c>
+      <c r="K72" s="3">
         <v>13785900</v>
       </c>
-      <c r="K72" s="3"/>
-    </row>
-    <row r="73" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L72" s="3"/>
+    </row>
+    <row r="73" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2322,9 +2533,12 @@
       <c r="J73" s="3">
         <v>0</v>
       </c>
-      <c r="K73" s="3"/>
-    </row>
-    <row r="74" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K73" s="3">
+        <v>0</v>
+      </c>
+      <c r="L73" s="3"/>
+    </row>
+    <row r="74" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2349,9 +2563,12 @@
       <c r="J74" s="3">
         <v>0</v>
       </c>
-      <c r="K74" s="3"/>
-    </row>
-    <row r="75" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K74" s="3">
+        <v>0</v>
+      </c>
+      <c r="L74" s="3"/>
+    </row>
+    <row r="75" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2376,36 +2593,42 @@
       <c r="J75" s="3">
         <v>0</v>
       </c>
-      <c r="K75" s="3"/>
-    </row>
-    <row r="76" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K75" s="3">
+        <v>0</v>
+      </c>
+      <c r="L75" s="3"/>
+    </row>
+    <row r="76" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>34864600</v>
+        <v>32749000</v>
       </c>
       <c r="E76" s="3">
-        <v>34286100</v>
+        <v>33774500</v>
       </c>
       <c r="F76" s="3">
-        <v>29990900</v>
+        <v>33214100</v>
       </c>
       <c r="G76" s="3">
-        <v>31960700</v>
+        <v>29053200</v>
       </c>
       <c r="H76" s="3">
-        <v>31635700</v>
+        <v>30961400</v>
       </c>
       <c r="I76" s="3">
-        <v>30126100</v>
+        <v>30646600</v>
       </c>
       <c r="J76" s="3">
+        <v>29184200</v>
+      </c>
+      <c r="K76" s="3">
         <v>29653700</v>
       </c>
-      <c r="K76" s="3"/>
-    </row>
-    <row r="77" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L76" s="3"/>
+    </row>
+    <row r="77" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2430,68 +2653,77 @@
       <c r="J77" s="3">
         <v>0</v>
       </c>
-      <c r="K77" s="3"/>
-    </row>
-    <row r="79" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K77" s="3">
+        <v>0</v>
+      </c>
+      <c r="L77" s="3"/>
+    </row>
+    <row r="79" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43465</v>
+      </c>
+      <c r="E80" s="2">
         <v>43100</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>42735</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>42369</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>42004</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>41639</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>41274</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>40908</v>
       </c>
-      <c r="K80" s="2"/>
-    </row>
-    <row r="81" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L80" s="2"/>
+    </row>
+    <row r="81" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>3424800</v>
+        <v>2450700</v>
       </c>
       <c r="E81" s="3">
-        <v>333400</v>
+        <v>3317700</v>
       </c>
       <c r="F81" s="3">
-        <v>-1532600</v>
+        <v>323000</v>
       </c>
       <c r="G81" s="3">
-        <v>2073500</v>
+        <v>-1484700</v>
       </c>
       <c r="H81" s="3">
-        <v>3004500</v>
+        <v>2008600</v>
       </c>
       <c r="I81" s="3">
-        <v>2105000</v>
+        <v>2910600</v>
       </c>
       <c r="J81" s="3">
+        <v>2039100</v>
+      </c>
+      <c r="K81" s="3">
         <v>3306500</v>
       </c>
-      <c r="K81" s="3"/>
-    </row>
-    <row r="82" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L81" s="3"/>
+    </row>
+    <row r="82" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2503,35 +2735,39 @@
       <c r="I82" s="3"/>
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
-    </row>
-    <row r="83" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L82" s="3"/>
+    </row>
+    <row r="83" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>4302900</v>
+        <v>4270300</v>
       </c>
       <c r="E83" s="3">
-        <v>4699300</v>
+        <v>4168300</v>
       </c>
       <c r="F83" s="3">
-        <v>5761700</v>
+        <v>4552300</v>
       </c>
       <c r="G83" s="3">
-        <v>4716900</v>
+        <v>5581600</v>
       </c>
       <c r="H83" s="3">
-        <v>3758200</v>
+        <v>4569400</v>
       </c>
       <c r="I83" s="3">
-        <v>4952000</v>
+        <v>3640700</v>
       </c>
       <c r="J83" s="3">
+        <v>4797200</v>
+      </c>
+      <c r="K83" s="3">
         <v>3036000</v>
       </c>
-      <c r="K83" s="3"/>
-    </row>
-    <row r="84" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L83" s="3"/>
+    </row>
+    <row r="84" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2556,9 +2792,12 @@
       <c r="J84" s="3">
         <v>0</v>
       </c>
-      <c r="K84" s="3"/>
-    </row>
-    <row r="85" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K84" s="3">
+        <v>0</v>
+      </c>
+      <c r="L84" s="3"/>
+    </row>
+    <row r="85" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2583,9 +2822,12 @@
       <c r="J85" s="3">
         <v>0</v>
       </c>
-      <c r="K85" s="3"/>
-    </row>
-    <row r="86" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K85" s="3">
+        <v>0</v>
+      </c>
+      <c r="L85" s="3"/>
+    </row>
+    <row r="86" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2610,9 +2852,12 @@
       <c r="J86" s="3">
         <v>0</v>
       </c>
-      <c r="K86" s="3"/>
-    </row>
-    <row r="87" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K86" s="3">
+        <v>0</v>
+      </c>
+      <c r="L86" s="3"/>
+    </row>
+    <row r="87" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2637,9 +2882,12 @@
       <c r="J87" s="3">
         <v>0</v>
       </c>
-      <c r="K87" s="3"/>
-    </row>
-    <row r="88" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K87" s="3">
+        <v>0</v>
+      </c>
+      <c r="L87" s="3"/>
+    </row>
+    <row r="88" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -2664,36 +2912,42 @@
       <c r="J88" s="3">
         <v>0</v>
       </c>
-      <c r="K88" s="3"/>
-    </row>
-    <row r="89" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K88" s="3">
+        <v>0</v>
+      </c>
+      <c r="L88" s="3"/>
+    </row>
+    <row r="89" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>6888000</v>
+        <v>7873700</v>
       </c>
       <c r="E89" s="3">
-        <v>4363500</v>
+        <v>6672600</v>
       </c>
       <c r="F89" s="3">
-        <v>5288500</v>
+        <v>4227100</v>
       </c>
       <c r="G89" s="3">
-        <v>6864900</v>
+        <v>5123100</v>
       </c>
       <c r="H89" s="3">
-        <v>7759100</v>
+        <v>6650300</v>
       </c>
       <c r="I89" s="3">
-        <v>6805700</v>
+        <v>7516500</v>
       </c>
       <c r="J89" s="3">
+        <v>6593000</v>
+      </c>
+      <c r="K89" s="3">
         <v>7673100</v>
       </c>
-      <c r="K89" s="3"/>
-    </row>
-    <row r="90" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L89" s="3"/>
+    </row>
+    <row r="90" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -2705,35 +2959,39 @@
       <c r="I90" s="3"/>
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
-    </row>
-    <row r="91" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L90" s="3"/>
+    </row>
+    <row r="91" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-5032700</v>
+        <v>-4023200</v>
       </c>
       <c r="E91" s="3">
-        <v>-5056500</v>
+        <v>-4875300</v>
       </c>
       <c r="F91" s="3">
-        <v>-5121800</v>
+        <v>-4898400</v>
       </c>
       <c r="G91" s="3">
-        <v>-5347600</v>
+        <v>-4961600</v>
       </c>
       <c r="H91" s="3">
-        <v>-5206300</v>
+        <v>-5180400</v>
       </c>
       <c r="I91" s="3">
-        <v>-5344600</v>
+        <v>-5043500</v>
       </c>
       <c r="J91" s="3">
+        <v>-5177500</v>
+      </c>
+      <c r="K91" s="3">
         <v>-5262400</v>
       </c>
-      <c r="K91" s="3"/>
-    </row>
-    <row r="92" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L91" s="3"/>
+    </row>
+    <row r="92" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -2758,9 +3016,12 @@
       <c r="J92" s="3">
         <v>0</v>
       </c>
-      <c r="K92" s="3"/>
-    </row>
-    <row r="93" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K92" s="3">
+        <v>0</v>
+      </c>
+      <c r="L92" s="3"/>
+    </row>
+    <row r="93" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -2785,36 +3046,42 @@
       <c r="J93" s="3">
         <v>0</v>
       </c>
-      <c r="K93" s="3"/>
-    </row>
-    <row r="94" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K93" s="3">
+        <v>0</v>
+      </c>
+      <c r="L93" s="3"/>
+    </row>
+    <row r="94" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-3855700</v>
+        <v>-4984000</v>
       </c>
       <c r="E94" s="3">
-        <v>-5767100</v>
+        <v>-3735200</v>
       </c>
       <c r="F94" s="3">
-        <v>-5201700</v>
+        <v>-5586800</v>
       </c>
       <c r="G94" s="3">
-        <v>-5272400</v>
+        <v>-5039000</v>
       </c>
       <c r="H94" s="3">
-        <v>-5018800</v>
+        <v>-5107500</v>
       </c>
       <c r="I94" s="3">
-        <v>-5104100</v>
+        <v>-4861900</v>
       </c>
       <c r="J94" s="3">
+        <v>-4944500</v>
+      </c>
+      <c r="K94" s="3">
         <v>-3532300</v>
       </c>
-      <c r="K94" s="3"/>
-    </row>
-    <row r="95" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L94" s="3"/>
+    </row>
+    <row r="95" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -2826,35 +3093,39 @@
       <c r="I95" s="3"/>
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
-    </row>
-    <row r="96" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L95" s="3"/>
+    </row>
+    <row r="96" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-1631700</v>
+        <v>-1736200</v>
       </c>
       <c r="E96" s="3">
-        <v>-1442000</v>
+        <v>-1580700</v>
       </c>
       <c r="F96" s="3">
-        <v>-1266000</v>
+        <v>-1396900</v>
       </c>
       <c r="G96" s="3">
-        <v>-1144700</v>
+        <v>-1226500</v>
       </c>
       <c r="H96" s="3">
-        <v>-841200</v>
+        <v>-1108900</v>
       </c>
       <c r="I96" s="3">
-        <v>-580800</v>
+        <v>-814900</v>
       </c>
       <c r="J96" s="3">
+        <v>-562600</v>
+      </c>
+      <c r="K96" s="3">
         <v>-510100</v>
       </c>
-      <c r="K96" s="3"/>
-    </row>
-    <row r="97" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L96" s="3"/>
+    </row>
+    <row r="97" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -2879,9 +3150,12 @@
       <c r="J97" s="3">
         <v>0</v>
       </c>
-      <c r="K97" s="3"/>
-    </row>
-    <row r="98" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K97" s="3">
+        <v>0</v>
+      </c>
+      <c r="L97" s="3"/>
+    </row>
+    <row r="98" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -2906,9 +3180,12 @@
       <c r="J98" s="3">
         <v>0</v>
       </c>
-      <c r="K98" s="3"/>
-    </row>
-    <row r="99" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K98" s="3">
+        <v>0</v>
+      </c>
+      <c r="L98" s="3"/>
+    </row>
+    <row r="99" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -2933,88 +3210,100 @@
       <c r="J99" s="3">
         <v>0</v>
       </c>
-      <c r="K99" s="3"/>
-    </row>
-    <row r="100" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K99" s="3">
+        <v>0</v>
+      </c>
+      <c r="L99" s="3"/>
+    </row>
+    <row r="100" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-3244200</v>
+        <v>-3293900</v>
       </c>
       <c r="E100" s="3">
-        <v>667600</v>
+        <v>-3142800</v>
       </c>
       <c r="F100" s="3">
-        <v>-1424300</v>
+        <v>646700</v>
       </c>
       <c r="G100" s="3">
-        <v>-1438100</v>
+        <v>-1379800</v>
       </c>
       <c r="H100" s="3">
-        <v>-2175600</v>
+        <v>-1393200</v>
       </c>
       <c r="I100" s="3">
-        <v>-1223000</v>
+        <v>-2107600</v>
       </c>
       <c r="J100" s="3">
+        <v>-1184800</v>
+      </c>
+      <c r="K100" s="3">
         <v>-2055800</v>
       </c>
-      <c r="K100" s="3"/>
-    </row>
-    <row r="101" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L100" s="3"/>
+    </row>
+    <row r="101" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-52200</v>
+        <v>68500</v>
       </c>
       <c r="E101" s="3">
-        <v>-57600</v>
+        <v>-50600</v>
       </c>
       <c r="F101" s="3">
-        <v>226600</v>
+        <v>-55800</v>
       </c>
       <c r="G101" s="3">
-        <v>70700</v>
+        <v>219500</v>
       </c>
       <c r="H101" s="3">
-        <v>63000</v>
+        <v>68500</v>
       </c>
       <c r="I101" s="3">
-        <v>-14600</v>
+        <v>61000</v>
       </c>
       <c r="J101" s="3">
+        <v>-14100</v>
+      </c>
+      <c r="K101" s="3">
         <v>9200</v>
       </c>
-      <c r="K101" s="3"/>
-    </row>
-    <row r="102" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L101" s="3"/>
+    </row>
+    <row r="102" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-264300</v>
+        <v>-335600</v>
       </c>
       <c r="E102" s="3">
-        <v>-793600</v>
+        <v>-256000</v>
       </c>
       <c r="F102" s="3">
-        <v>-1110900</v>
+        <v>-768800</v>
       </c>
       <c r="G102" s="3">
-        <v>225100</v>
+        <v>-1076100</v>
       </c>
       <c r="H102" s="3">
-        <v>627600</v>
+        <v>218100</v>
       </c>
       <c r="I102" s="3">
-        <v>464000</v>
+        <v>608000</v>
       </c>
       <c r="J102" s="3">
+        <v>449500</v>
+      </c>
+      <c r="K102" s="3">
         <v>2094200</v>
       </c>
-      <c r="K102" s="3"/>
+      <c r="L102" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Financials/Yearly/SU_YR_FIN.xlsx
+++ b/Financials/Yearly/SU_YR_FIN.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Yearly\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD174E27-ABC4-437D-96A6-2A674503ECD9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9348" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9345"/>
   </bookViews>
   <sheets>
     <sheet name="SU" sheetId="6" r:id="rId1"/>
@@ -23,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="92">
   <si>
     <t>SU</t>
   </si>
@@ -304,7 +303,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
   </numFmts>
@@ -445,23 +444,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -497,23 +479,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -689,32 +654,32 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A5:L102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="26.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="69.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="11" width="14.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.109375" style="1"/>
+    <col min="1" max="1" width="4.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
@@ -744,97 +709,97 @@
       </c>
       <c r="L7" s="2"/>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>28683300</v>
+        <v>29014000</v>
       </c>
       <c r="E8" s="3">
-        <v>23780500</v>
+        <v>24054700</v>
       </c>
       <c r="F8" s="3">
-        <v>19950000</v>
+        <v>20180000</v>
       </c>
       <c r="G8" s="3">
-        <v>21736900</v>
+        <v>21987500</v>
       </c>
       <c r="H8" s="3">
-        <v>29665700</v>
+        <v>30007700</v>
       </c>
       <c r="I8" s="3">
-        <v>29528800</v>
+        <v>30323900</v>
       </c>
       <c r="J8" s="3">
-        <v>28427300</v>
+        <v>28755100</v>
       </c>
       <c r="K8" s="3">
         <v>29453200</v>
       </c>
       <c r="L8" s="3"/>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>10517900</v>
+        <v>10639200</v>
       </c>
       <c r="E9" s="3">
-        <v>8276400</v>
+        <v>8371800</v>
       </c>
       <c r="F9" s="3">
-        <v>7350600</v>
+        <v>7435300</v>
       </c>
       <c r="G9" s="3">
-        <v>8625400</v>
+        <v>8724800</v>
       </c>
       <c r="H9" s="3">
-        <v>13044500</v>
+        <v>13194900</v>
       </c>
       <c r="I9" s="3">
-        <v>12869600</v>
+        <v>13018000</v>
       </c>
       <c r="J9" s="3">
-        <v>12686500</v>
+        <v>12832800</v>
       </c>
       <c r="K9" s="3">
         <v>13616900</v>
       </c>
       <c r="L9" s="3"/>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>18165400</v>
+        <v>18374900</v>
       </c>
       <c r="E10" s="3">
-        <v>15504100</v>
+        <v>15682900</v>
       </c>
       <c r="F10" s="3">
-        <v>12599500</v>
+        <v>12744700</v>
       </c>
       <c r="G10" s="3">
-        <v>13111500</v>
+        <v>13262700</v>
       </c>
       <c r="H10" s="3">
-        <v>16621200</v>
+        <v>16812800</v>
       </c>
       <c r="I10" s="3">
-        <v>16659100</v>
+        <v>17305900</v>
       </c>
       <c r="J10" s="3">
-        <v>15740800</v>
+        <v>15922300</v>
       </c>
       <c r="K10" s="3">
         <v>15836300</v>
       </c>
       <c r="L10" s="3"/>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -848,37 +813,37 @@
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>90800</v>
+        <v>91800</v>
       </c>
       <c r="E12" s="3">
-        <v>77400</v>
+        <v>78300</v>
       </c>
       <c r="F12" s="3">
-        <v>215100</v>
+        <v>217600</v>
       </c>
       <c r="G12" s="3">
-        <v>355700</v>
+        <v>359800</v>
       </c>
       <c r="H12" s="3">
-        <v>273100</v>
+        <v>276300</v>
       </c>
       <c r="I12" s="3">
-        <v>239600</v>
+        <v>242400</v>
       </c>
       <c r="J12" s="3">
-        <v>230000</v>
+        <v>232600</v>
       </c>
       <c r="K12" s="3">
         <v>89100</v>
       </c>
       <c r="L12" s="3"/>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -908,67 +873,67 @@
       </c>
       <c r="L13" s="3"/>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
-        <v>-7400</v>
+        <v>-7500</v>
       </c>
       <c r="E14" s="3">
-        <v>113100</v>
+        <v>114400</v>
       </c>
       <c r="F14" s="3">
-        <v>27500</v>
+        <v>27900</v>
       </c>
       <c r="G14" s="3">
-        <v>-32000</v>
+        <v>-32400</v>
       </c>
       <c r="H14" s="3">
-        <v>45400</v>
+        <v>45900</v>
       </c>
       <c r="I14" s="3">
-        <v>-11200</v>
+        <v>-11300</v>
       </c>
       <c r="J14" s="3">
-        <v>9700</v>
+        <v>9800</v>
       </c>
       <c r="K14" s="3" t="s">
         <v>10</v>
       </c>
       <c r="L14" s="3"/>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>4270300</v>
+        <v>4319500</v>
       </c>
       <c r="E15" s="3">
-        <v>4168300</v>
+        <v>4216400</v>
       </c>
       <c r="F15" s="3">
-        <v>4552300</v>
+        <v>4604800</v>
       </c>
       <c r="G15" s="3">
-        <v>5581600</v>
+        <v>5645900</v>
       </c>
       <c r="H15" s="3">
-        <v>4569400</v>
+        <v>4622100</v>
       </c>
       <c r="I15" s="3">
-        <v>3640700</v>
+        <v>3682600</v>
       </c>
       <c r="J15" s="3">
-        <v>4797200</v>
+        <v>4852500</v>
       </c>
       <c r="K15" s="3">
         <v>3036000</v>
       </c>
       <c r="L15" s="3"/>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -979,67 +944,67 @@
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
     </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="17" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>23919700</v>
+        <v>24195400</v>
       </c>
       <c r="E17" s="3">
-        <v>20398800</v>
+        <v>20634000</v>
       </c>
       <c r="F17" s="3">
-        <v>19953000</v>
+        <v>20183100</v>
       </c>
       <c r="G17" s="3">
-        <v>21890200</v>
+        <v>22142600</v>
       </c>
       <c r="H17" s="3">
-        <v>25913400</v>
+        <v>26212100</v>
       </c>
       <c r="I17" s="3">
-        <v>24613300</v>
+        <v>25524100</v>
       </c>
       <c r="J17" s="3">
-        <v>25034500</v>
+        <v>25323100</v>
       </c>
       <c r="K17" s="3">
         <v>23904200</v>
       </c>
       <c r="L17" s="3"/>
     </row>
-    <row r="18" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="18" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>4763700</v>
+        <v>4818600</v>
       </c>
       <c r="E18" s="3">
-        <v>3381700</v>
+        <v>3420700</v>
       </c>
       <c r="F18" s="3">
         <v>-3000</v>
       </c>
       <c r="G18" s="3">
-        <v>-153300</v>
+        <v>-155100</v>
       </c>
       <c r="H18" s="3">
-        <v>3752300</v>
+        <v>3795600</v>
       </c>
       <c r="I18" s="3">
-        <v>4915500</v>
+        <v>4799800</v>
       </c>
       <c r="J18" s="3">
-        <v>3392900</v>
+        <v>3432000</v>
       </c>
       <c r="K18" s="3">
         <v>5548900</v>
       </c>
       <c r="L18" s="3"/>
     </row>
-    <row r="19" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="19" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1053,157 +1018,157 @@
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
     </row>
-    <row r="20" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="20" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-462200</v>
+        <v>-509600</v>
       </c>
       <c r="E20" s="3">
-        <v>1228700</v>
+        <v>1195400</v>
       </c>
       <c r="F20" s="3">
-        <v>419700</v>
+        <v>380200</v>
       </c>
       <c r="G20" s="3">
-        <v>-1001700</v>
+        <v>-1052400</v>
       </c>
       <c r="H20" s="3">
-        <v>-66200</v>
+        <v>-108400</v>
       </c>
       <c r="I20" s="3">
-        <v>107900</v>
+        <v>0</v>
       </c>
       <c r="J20" s="3">
-        <v>893100</v>
+        <v>903300</v>
       </c>
       <c r="K20" s="3">
         <v>-39900</v>
       </c>
       <c r="L20" s="3"/>
     </row>
-    <row r="21" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="21" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>8580800</v>
+        <v>8630400</v>
       </c>
       <c r="E21" s="3">
-        <v>8787400</v>
+        <v>8834400</v>
       </c>
       <c r="F21" s="3">
-        <v>4978600</v>
+        <v>4984000</v>
       </c>
       <c r="G21" s="3">
-        <v>4438300</v>
+        <v>4441000</v>
       </c>
       <c r="H21" s="3">
-        <v>8265100</v>
+        <v>8311400</v>
       </c>
       <c r="I21" s="3">
-        <v>8671700</v>
+        <v>8484100</v>
       </c>
       <c r="J21" s="3">
-        <v>9093100</v>
+        <v>9190000</v>
       </c>
       <c r="K21" s="3">
         <v>8559500</v>
       </c>
       <c r="L21" s="3"/>
     </row>
-    <row r="22" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="22" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>593100</v>
+        <v>557800</v>
       </c>
       <c r="E22" s="3">
-        <v>207600</v>
+        <v>162600</v>
       </c>
       <c r="F22" s="3">
-        <v>352800</v>
+        <v>312400</v>
       </c>
       <c r="G22" s="3">
-        <v>353500</v>
+        <v>318400</v>
       </c>
       <c r="H22" s="3">
-        <v>270100</v>
-      </c>
-      <c r="I22" s="3">
-        <v>278300</v>
+        <v>231900</v>
+      </c>
+      <c r="I22" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="J22" s="3">
-        <v>576800</v>
+        <v>583400</v>
       </c>
       <c r="K22" s="3">
         <v>78400</v>
       </c>
       <c r="L22" s="3"/>
     </row>
-    <row r="23" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="23" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>3708400</v>
+        <v>3751200</v>
       </c>
       <c r="E23" s="3">
-        <v>4402700</v>
+        <v>4453500</v>
       </c>
       <c r="F23" s="3">
-        <v>64000</v>
+        <v>64700</v>
       </c>
       <c r="G23" s="3">
-        <v>-1508500</v>
+        <v>-1525900</v>
       </c>
       <c r="H23" s="3">
-        <v>3415900</v>
+        <v>3455300</v>
       </c>
       <c r="I23" s="3">
-        <v>4745100</v>
+        <v>4799800</v>
       </c>
       <c r="J23" s="3">
-        <v>3709100</v>
+        <v>3751900</v>
       </c>
       <c r="K23" s="3">
         <v>5430600</v>
       </c>
       <c r="L23" s="3"/>
     </row>
-    <row r="24" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="24" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>1257700</v>
+        <v>1272200</v>
       </c>
       <c r="E24" s="3">
-        <v>1085100</v>
+        <v>1097600</v>
       </c>
       <c r="F24" s="3">
-        <v>-267200</v>
+        <v>-270300</v>
       </c>
       <c r="G24" s="3">
-        <v>-23800</v>
+        <v>-24100</v>
       </c>
       <c r="H24" s="3">
-        <v>1407300</v>
+        <v>1423500</v>
       </c>
       <c r="I24" s="3">
-        <v>1834500</v>
+        <v>1855600</v>
       </c>
       <c r="J24" s="3">
-        <v>1670000</v>
+        <v>1689300</v>
       </c>
       <c r="K24" s="3">
         <v>2124200</v>
       </c>
       <c r="L24" s="3"/>
     </row>
-    <row r="25" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="25" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1233,67 +1198,67 @@
       </c>
       <c r="L25" s="3"/>
     </row>
-    <row r="26" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="26" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>2450700</v>
+        <v>2478900</v>
       </c>
       <c r="E26" s="3">
-        <v>3317700</v>
+        <v>3355900</v>
       </c>
       <c r="F26" s="3">
-        <v>331200</v>
+        <v>335000</v>
       </c>
       <c r="G26" s="3">
-        <v>-1484700</v>
+        <v>-1501800</v>
       </c>
       <c r="H26" s="3">
-        <v>2008600</v>
+        <v>2031800</v>
       </c>
       <c r="I26" s="3">
-        <v>2910600</v>
+        <v>2944200</v>
       </c>
       <c r="J26" s="3">
-        <v>2039100</v>
+        <v>2062600</v>
       </c>
       <c r="K26" s="3">
         <v>3306500</v>
       </c>
       <c r="L26" s="3"/>
     </row>
-    <row r="27" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="27" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>2450700</v>
+        <v>2478900</v>
       </c>
       <c r="E27" s="3">
-        <v>3317700</v>
+        <v>3355900</v>
       </c>
       <c r="F27" s="3">
-        <v>323000</v>
+        <v>326700</v>
       </c>
       <c r="G27" s="3">
-        <v>-1484700</v>
+        <v>-1501800</v>
       </c>
       <c r="H27" s="3">
-        <v>2008600</v>
+        <v>2031800</v>
       </c>
       <c r="I27" s="3">
-        <v>2910600</v>
+        <v>2944200</v>
       </c>
       <c r="J27" s="3">
-        <v>2039100</v>
+        <v>2062600</v>
       </c>
       <c r="K27" s="3">
         <v>3306500</v>
       </c>
       <c r="L27" s="3"/>
     </row>
-    <row r="28" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="28" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1323,7 +1288,7 @@
       </c>
       <c r="L28" s="3"/>
     </row>
-    <row r="29" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="29" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1353,7 +1318,7 @@
       </c>
       <c r="L29" s="3"/>
     </row>
-    <row r="30" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="30" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1383,7 +1348,7 @@
       </c>
       <c r="L30" s="3"/>
     </row>
-    <row r="31" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="31" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1413,67 +1378,67 @@
       </c>
       <c r="L31" s="3"/>
     </row>
-    <row r="32" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="32" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>462200</v>
+        <v>509600</v>
       </c>
       <c r="E32" s="3">
-        <v>-1228700</v>
+        <v>-1195400</v>
       </c>
       <c r="F32" s="3">
-        <v>-419700</v>
+        <v>-380200</v>
       </c>
       <c r="G32" s="3">
-        <v>1001700</v>
+        <v>1052400</v>
       </c>
       <c r="H32" s="3">
-        <v>66200</v>
+        <v>108400</v>
       </c>
       <c r="I32" s="3">
-        <v>-107900</v>
+        <v>0</v>
       </c>
       <c r="J32" s="3">
-        <v>-893100</v>
+        <v>-903300</v>
       </c>
       <c r="K32" s="3">
         <v>39900</v>
       </c>
       <c r="L32" s="3"/>
     </row>
-    <row r="33" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>2450700</v>
+        <v>2478900</v>
       </c>
       <c r="E33" s="3">
-        <v>3317700</v>
+        <v>3355900</v>
       </c>
       <c r="F33" s="3">
-        <v>323000</v>
+        <v>326700</v>
       </c>
       <c r="G33" s="3">
-        <v>-1484700</v>
+        <v>-1501800</v>
       </c>
       <c r="H33" s="3">
-        <v>2008600</v>
+        <v>2031800</v>
       </c>
       <c r="I33" s="3">
-        <v>2910600</v>
+        <v>2944200</v>
       </c>
       <c r="J33" s="3">
-        <v>2039100</v>
+        <v>2062600</v>
       </c>
       <c r="K33" s="3">
         <v>3306500</v>
       </c>
       <c r="L33" s="3"/>
     </row>
-    <row r="34" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1503,42 +1468,42 @@
       </c>
       <c r="L34" s="3"/>
     </row>
-    <row r="35" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>2450700</v>
+        <v>2478900</v>
       </c>
       <c r="E35" s="3">
-        <v>3317700</v>
+        <v>3355900</v>
       </c>
       <c r="F35" s="3">
-        <v>323000</v>
+        <v>326700</v>
       </c>
       <c r="G35" s="3">
-        <v>-1484700</v>
+        <v>-1501800</v>
       </c>
       <c r="H35" s="3">
-        <v>2008600</v>
+        <v>2031800</v>
       </c>
       <c r="I35" s="3">
-        <v>2910600</v>
+        <v>2944200</v>
       </c>
       <c r="J35" s="3">
-        <v>2039100</v>
+        <v>2062600</v>
       </c>
       <c r="K35" s="3">
         <v>3306500</v>
       </c>
       <c r="L35" s="3"/>
     </row>
-    <row r="37" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
@@ -1568,7 +1533,7 @@
       </c>
       <c r="L38" s="2"/>
     </row>
-    <row r="39" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1582,7 +1547,7 @@
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
     </row>
-    <row r="40" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1596,37 +1561,37 @@
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
     </row>
-    <row r="41" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>1652900</v>
+        <v>1671900</v>
       </c>
       <c r="E41" s="3">
-        <v>1988500</v>
+        <v>2011500</v>
       </c>
       <c r="F41" s="3">
-        <v>2244500</v>
+        <v>2270400</v>
       </c>
       <c r="G41" s="3">
-        <v>3013300</v>
+        <v>3048000</v>
       </c>
       <c r="H41" s="3">
-        <v>4089400</v>
+        <v>4136600</v>
       </c>
       <c r="I41" s="3">
-        <v>3871400</v>
+        <v>3916000</v>
       </c>
       <c r="J41" s="3">
-        <v>3736700</v>
+        <v>3779800</v>
       </c>
       <c r="K41" s="3">
         <v>2921600</v>
       </c>
       <c r="L41" s="3"/>
     </row>
-    <row r="42" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1656,67 +1621,67 @@
       </c>
       <c r="L42" s="3"/>
     </row>
-    <row r="43" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>2470800</v>
+        <v>2499300</v>
       </c>
       <c r="E43" s="3">
-        <v>2557800</v>
+        <v>2587300</v>
       </c>
       <c r="F43" s="3">
-        <v>2647900</v>
+        <v>2678400</v>
       </c>
       <c r="G43" s="3">
-        <v>2447700</v>
+        <v>2475900</v>
       </c>
       <c r="H43" s="3">
-        <v>3687600</v>
+        <v>3730100</v>
       </c>
       <c r="I43" s="3">
-        <v>4128900</v>
+        <v>4176500</v>
       </c>
       <c r="J43" s="3">
-        <v>4465300</v>
+        <v>4516700</v>
       </c>
       <c r="K43" s="3">
         <v>4698500</v>
       </c>
       <c r="L43" s="3"/>
     </row>
-    <row r="44" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>2351000</v>
+        <v>2378100</v>
       </c>
       <c r="E44" s="3">
-        <v>2580900</v>
+        <v>2610700</v>
       </c>
       <c r="F44" s="3">
-        <v>2411200</v>
+        <v>2439000</v>
       </c>
       <c r="G44" s="3">
-        <v>2299600</v>
+        <v>2326100</v>
       </c>
       <c r="H44" s="3">
-        <v>2579400</v>
+        <v>2609200</v>
       </c>
       <c r="I44" s="3">
-        <v>2935200</v>
+        <v>2969000</v>
       </c>
       <c r="J44" s="3">
-        <v>3563300</v>
+        <v>3604400</v>
       </c>
       <c r="K44" s="3">
         <v>3230400</v>
       </c>
       <c r="L44" s="3"/>
     </row>
-    <row r="45" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -1727,7 +1692,7 @@
         <v>0</v>
       </c>
       <c r="F45" s="3">
-        <v>896800</v>
+        <v>907100</v>
       </c>
       <c r="G45" s="3" t="s">
         <v>10</v>
@@ -1746,51 +1711,51 @@
       </c>
       <c r="L45" s="3"/>
     </row>
-    <row r="46" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="46" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>6474600</v>
+        <v>6549300</v>
       </c>
       <c r="E46" s="3">
-        <v>7127300</v>
+        <v>7209500</v>
       </c>
       <c r="F46" s="3">
-        <v>8200400</v>
+        <v>8295000</v>
       </c>
       <c r="G46" s="3">
-        <v>7760600</v>
+        <v>7850100</v>
       </c>
       <c r="H46" s="3">
-        <v>10356400</v>
+        <v>10475800</v>
       </c>
       <c r="I46" s="3">
-        <v>10935400</v>
+        <v>11061500</v>
       </c>
       <c r="J46" s="3">
-        <v>10480000</v>
+        <v>10600800</v>
       </c>
       <c r="K46" s="3">
         <v>10850500</v>
       </c>
       <c r="L46" s="3"/>
     </row>
-    <row r="47" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="47" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>176400</v>
+        <v>178400</v>
       </c>
       <c r="E47" s="3">
-        <v>166700</v>
+        <v>168600</v>
       </c>
       <c r="F47" s="3">
-        <v>142100</v>
+        <v>143800</v>
       </c>
       <c r="G47" s="3">
-        <v>157000</v>
+        <v>158800</v>
       </c>
       <c r="H47" s="3" t="s">
         <v>10</v>
@@ -1806,67 +1771,67 @@
       </c>
       <c r="L47" s="3"/>
     </row>
-    <row r="48" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="48" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>56979700</v>
+        <v>57636600</v>
       </c>
       <c r="E48" s="3">
-        <v>56221300</v>
+        <v>56869500</v>
       </c>
       <c r="F48" s="3">
-        <v>54548400</v>
+        <v>55177200</v>
       </c>
       <c r="G48" s="3">
-        <v>46760200</v>
+        <v>47299300</v>
       </c>
       <c r="H48" s="3">
-        <v>46176700</v>
+        <v>46709100</v>
       </c>
       <c r="I48" s="3">
-        <v>44683900</v>
+        <v>45199000</v>
       </c>
       <c r="J48" s="3">
-        <v>84052600</v>
+        <v>85021600</v>
       </c>
       <c r="K48" s="3">
         <v>43899000</v>
       </c>
       <c r="L48" s="3"/>
     </row>
-    <row r="49" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="49" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>2278000</v>
+        <v>2304300</v>
       </c>
       <c r="E49" s="3">
-        <v>2278000</v>
+        <v>2304300</v>
       </c>
       <c r="F49" s="3">
-        <v>2288400</v>
+        <v>2314800</v>
       </c>
       <c r="G49" s="3">
-        <v>2291400</v>
+        <v>2317800</v>
       </c>
       <c r="H49" s="3">
-        <v>2627100</v>
+        <v>2657300</v>
       </c>
       <c r="I49" s="3">
-        <v>2543000</v>
+        <v>2572300</v>
       </c>
       <c r="J49" s="3">
-        <v>2540000</v>
+        <v>2569300</v>
       </c>
       <c r="K49" s="3">
         <v>2411500</v>
       </c>
       <c r="L49" s="3"/>
     </row>
-    <row r="50" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="50" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1896,7 +1861,7 @@
       </c>
       <c r="L50" s="3"/>
     </row>
-    <row r="51" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="51" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1926,37 +1891,37 @@
       </c>
       <c r="L51" s="3"/>
     </row>
-    <row r="52" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="52" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>756900</v>
+        <v>765600</v>
       </c>
       <c r="E52" s="3">
-        <v>809000</v>
+        <v>818300</v>
       </c>
       <c r="F52" s="3">
-        <v>833500</v>
+        <v>843100</v>
       </c>
       <c r="G52" s="3">
-        <v>727100</v>
+        <v>735500</v>
       </c>
       <c r="H52" s="3">
-        <v>131700</v>
+        <v>133200</v>
       </c>
       <c r="I52" s="3">
-        <v>120600</v>
+        <v>122000</v>
       </c>
       <c r="J52" s="3">
-        <v>194200</v>
+        <v>196500</v>
       </c>
       <c r="K52" s="3">
         <v>285000</v>
       </c>
       <c r="L52" s="3"/>
     </row>
-    <row r="53" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="53" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -1986,37 +1951,37 @@
       </c>
       <c r="L53" s="3"/>
     </row>
-    <row r="54" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="54" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>66665600</v>
+        <v>67434200</v>
       </c>
       <c r="E54" s="3">
-        <v>66602300</v>
+        <v>67370200</v>
       </c>
       <c r="F54" s="3">
-        <v>66012900</v>
+        <v>66774000</v>
       </c>
       <c r="G54" s="3">
-        <v>57696400</v>
+        <v>58361600</v>
       </c>
       <c r="H54" s="3">
-        <v>59292000</v>
+        <v>59975500</v>
       </c>
       <c r="I54" s="3">
-        <v>58282800</v>
+        <v>58954700</v>
       </c>
       <c r="J54" s="3">
-        <v>56858400</v>
+        <v>57513900</v>
       </c>
       <c r="K54" s="3">
         <v>57445900</v>
       </c>
       <c r="L54" s="3"/>
     </row>
-    <row r="55" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="55" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2030,7 +1995,7 @@
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
     </row>
-    <row r="56" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="56" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2044,187 +2009,187 @@
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
     </row>
-    <row r="57" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="57" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>4202600</v>
+        <v>4251000</v>
       </c>
       <c r="E57" s="3">
-        <v>4616300</v>
+        <v>4669600</v>
       </c>
       <c r="F57" s="3">
-        <v>4158600</v>
+        <v>4206600</v>
       </c>
       <c r="G57" s="3">
-        <v>3948800</v>
+        <v>3994300</v>
       </c>
       <c r="H57" s="3">
-        <v>4245000</v>
+        <v>4293900</v>
       </c>
       <c r="I57" s="3">
-        <v>5276400</v>
+        <v>5337300</v>
       </c>
       <c r="J57" s="3">
-        <v>4797200</v>
+        <v>4852500</v>
       </c>
       <c r="K57" s="3">
         <v>5957600</v>
       </c>
       <c r="L57" s="3"/>
     </row>
-    <row r="58" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="58" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>2575000</v>
+        <v>2604700</v>
       </c>
       <c r="E58" s="3">
-        <v>1642500</v>
+        <v>1661400</v>
       </c>
       <c r="F58" s="3">
-        <v>987600</v>
+        <v>999000</v>
       </c>
       <c r="G58" s="3">
-        <v>608000</v>
+        <v>615000</v>
       </c>
       <c r="H58" s="3">
-        <v>625100</v>
+        <v>632300</v>
       </c>
       <c r="I58" s="3">
-        <v>934000</v>
+        <v>944800</v>
       </c>
       <c r="J58" s="3">
-        <v>808200</v>
+        <v>817500</v>
       </c>
       <c r="K58" s="3">
         <v>593800</v>
       </c>
       <c r="L58" s="3"/>
     </row>
-    <row r="59" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="59" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>894500</v>
+        <v>904900</v>
       </c>
       <c r="E59" s="3">
-        <v>853600</v>
+        <v>863500</v>
       </c>
       <c r="F59" s="3">
-        <v>894500</v>
+        <v>904900</v>
       </c>
       <c r="G59" s="3">
-        <v>753900</v>
+        <v>762600</v>
       </c>
       <c r="H59" s="3">
-        <v>1347000</v>
+        <v>1362500</v>
       </c>
       <c r="I59" s="3">
-        <v>1682700</v>
+        <v>1702100</v>
       </c>
       <c r="J59" s="3">
-        <v>1504800</v>
+        <v>1522100</v>
       </c>
       <c r="K59" s="3">
         <v>1369000</v>
       </c>
       <c r="L59" s="3"/>
     </row>
-    <row r="60" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="60" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>7672100</v>
+        <v>7760500</v>
       </c>
       <c r="E60" s="3">
-        <v>7112400</v>
+        <v>7194400</v>
       </c>
       <c r="F60" s="3">
-        <v>6040800</v>
+        <v>6110400</v>
       </c>
       <c r="G60" s="3">
-        <v>5310700</v>
+        <v>5371900</v>
       </c>
       <c r="H60" s="3">
-        <v>6217100</v>
+        <v>6288800</v>
       </c>
       <c r="I60" s="3">
-        <v>7893100</v>
+        <v>7984100</v>
       </c>
       <c r="J60" s="3">
-        <v>7109400</v>
+        <v>7191400</v>
       </c>
       <c r="K60" s="3">
         <v>7920500</v>
       </c>
       <c r="L60" s="3"/>
     </row>
-    <row r="61" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="61" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>10337100</v>
+        <v>10456300</v>
       </c>
       <c r="E61" s="3">
-        <v>9951600</v>
+        <v>10066300</v>
       </c>
       <c r="F61" s="3">
-        <v>11984000</v>
+        <v>12122200</v>
       </c>
       <c r="G61" s="3">
-        <v>10780600</v>
+        <v>10904900</v>
       </c>
       <c r="H61" s="3">
-        <v>9294400</v>
+        <v>9401600</v>
       </c>
       <c r="I61" s="3">
-        <v>7593200</v>
+        <v>7680700</v>
       </c>
       <c r="J61" s="3">
-        <v>7396000</v>
+        <v>7481200</v>
       </c>
       <c r="K61" s="3">
         <v>7685400</v>
       </c>
       <c r="L61" s="3"/>
     </row>
-    <row r="62" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="62" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>15907500</v>
+        <v>16090900</v>
       </c>
       <c r="E62" s="3">
-        <v>15763900</v>
+        <v>15945600</v>
       </c>
       <c r="F62" s="3">
-        <v>14774100</v>
+        <v>14944400</v>
       </c>
       <c r="G62" s="3">
-        <v>12551800</v>
+        <v>12696600</v>
       </c>
       <c r="H62" s="3">
-        <v>12819000</v>
+        <v>12966800</v>
       </c>
       <c r="I62" s="3">
-        <v>12150000</v>
+        <v>12290000</v>
       </c>
       <c r="J62" s="3">
-        <v>14830600</v>
+        <v>15001600</v>
       </c>
       <c r="K62" s="3">
         <v>12186400</v>
       </c>
       <c r="L62" s="3"/>
     </row>
-    <row r="63" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="63" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2254,7 +2219,7 @@
       </c>
       <c r="L63" s="3"/>
     </row>
-    <row r="64" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="64" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2284,7 +2249,7 @@
       </c>
       <c r="L64" s="3"/>
     </row>
-    <row r="65" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="65" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2314,37 +2279,37 @@
       </c>
       <c r="L65" s="3"/>
     </row>
-    <row r="66" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="66" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>33916600</v>
+        <v>34307700</v>
       </c>
       <c r="E66" s="3">
-        <v>32827800</v>
+        <v>33206300</v>
       </c>
       <c r="F66" s="3">
-        <v>32798800</v>
+        <v>33177000</v>
       </c>
       <c r="G66" s="3">
-        <v>28643200</v>
+        <v>28973400</v>
       </c>
       <c r="H66" s="3">
-        <v>28330600</v>
+        <v>28657200</v>
       </c>
       <c r="I66" s="3">
-        <v>27636200</v>
+        <v>27954900</v>
       </c>
       <c r="J66" s="3">
-        <v>27674200</v>
+        <v>27993200</v>
       </c>
       <c r="K66" s="3">
         <v>27792300</v>
       </c>
       <c r="L66" s="3"/>
     </row>
-    <row r="67" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="67" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2358,7 +2323,7 @@
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
     </row>
-    <row r="68" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="68" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2388,7 +2353,7 @@
       </c>
       <c r="L68" s="3"/>
     </row>
-    <row r="69" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="69" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2418,7 +2383,7 @@
       </c>
       <c r="L69" s="3"/>
     </row>
-    <row r="70" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="70" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2448,7 +2413,7 @@
       </c>
       <c r="L70" s="3"/>
     </row>
-    <row r="71" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="71" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2478,37 +2443,37 @@
       </c>
       <c r="L71" s="3"/>
     </row>
-    <row r="72" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="72" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>12263800</v>
+        <v>12405200</v>
       </c>
       <c r="E72" s="3">
-        <v>12950000</v>
+        <v>13099300</v>
       </c>
       <c r="F72" s="3">
-        <v>11976600</v>
+        <v>12114600</v>
       </c>
       <c r="G72" s="3">
-        <v>13153900</v>
+        <v>13305600</v>
       </c>
       <c r="H72" s="3">
-        <v>15761600</v>
+        <v>15943300</v>
       </c>
       <c r="I72" s="3">
-        <v>15682000</v>
+        <v>15862800</v>
       </c>
       <c r="J72" s="3">
-        <v>14066300</v>
+        <v>14228500</v>
       </c>
       <c r="K72" s="3">
         <v>13785900</v>
       </c>
       <c r="L72" s="3"/>
     </row>
-    <row r="73" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="73" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2538,7 +2503,7 @@
       </c>
       <c r="L73" s="3"/>
     </row>
-    <row r="74" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="74" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2568,7 +2533,7 @@
       </c>
       <c r="L74" s="3"/>
     </row>
-    <row r="75" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="75" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2598,37 +2563,37 @@
       </c>
       <c r="L75" s="3"/>
     </row>
-    <row r="76" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="76" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>32749000</v>
+        <v>33126500</v>
       </c>
       <c r="E76" s="3">
-        <v>33774500</v>
+        <v>34163900</v>
       </c>
       <c r="F76" s="3">
-        <v>33214100</v>
+        <v>33597000</v>
       </c>
       <c r="G76" s="3">
-        <v>29053200</v>
+        <v>29388200</v>
       </c>
       <c r="H76" s="3">
-        <v>30961400</v>
+        <v>31318300</v>
       </c>
       <c r="I76" s="3">
-        <v>30646600</v>
+        <v>30999900</v>
       </c>
       <c r="J76" s="3">
-        <v>29184200</v>
+        <v>29520700</v>
       </c>
       <c r="K76" s="3">
         <v>29653700</v>
       </c>
       <c r="L76" s="3"/>
     </row>
-    <row r="77" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="77" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2658,12 +2623,12 @@
       </c>
       <c r="L77" s="3"/>
     </row>
-    <row r="79" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="79" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="80" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
@@ -2693,37 +2658,37 @@
       </c>
       <c r="L80" s="2"/>
     </row>
-    <row r="81" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="81" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>2450700</v>
+        <v>2478900</v>
       </c>
       <c r="E81" s="3">
-        <v>3317700</v>
+        <v>3355900</v>
       </c>
       <c r="F81" s="3">
-        <v>323000</v>
+        <v>326700</v>
       </c>
       <c r="G81" s="3">
-        <v>-1484700</v>
+        <v>-1501800</v>
       </c>
       <c r="H81" s="3">
-        <v>2008600</v>
+        <v>2031800</v>
       </c>
       <c r="I81" s="3">
-        <v>2910600</v>
+        <v>2944200</v>
       </c>
       <c r="J81" s="3">
-        <v>2039100</v>
+        <v>2062600</v>
       </c>
       <c r="K81" s="3">
         <v>3306500</v>
       </c>
       <c r="L81" s="3"/>
     </row>
-    <row r="82" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="82" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2737,37 +2702,37 @@
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
     </row>
-    <row r="83" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="83" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>4270300</v>
+        <v>4319500</v>
       </c>
       <c r="E83" s="3">
-        <v>4168300</v>
+        <v>4216400</v>
       </c>
       <c r="F83" s="3">
-        <v>4552300</v>
+        <v>4604800</v>
       </c>
       <c r="G83" s="3">
-        <v>5581600</v>
+        <v>5645900</v>
       </c>
       <c r="H83" s="3">
-        <v>4569400</v>
+        <v>4622100</v>
       </c>
       <c r="I83" s="3">
-        <v>3640700</v>
+        <v>3682600</v>
       </c>
       <c r="J83" s="3">
-        <v>4797200</v>
+        <v>4852500</v>
       </c>
       <c r="K83" s="3">
         <v>3036000</v>
       </c>
       <c r="L83" s="3"/>
     </row>
-    <row r="84" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="84" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2797,7 +2762,7 @@
       </c>
       <c r="L84" s="3"/>
     </row>
-    <row r="85" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="85" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2827,7 +2792,7 @@
       </c>
       <c r="L85" s="3"/>
     </row>
-    <row r="86" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="86" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2857,7 +2822,7 @@
       </c>
       <c r="L86" s="3"/>
     </row>
-    <row r="87" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="87" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2887,7 +2852,7 @@
       </c>
       <c r="L87" s="3"/>
     </row>
-    <row r="88" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="88" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -2917,37 +2882,37 @@
       </c>
       <c r="L88" s="3"/>
     </row>
-    <row r="89" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="89" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>7873700</v>
+        <v>7964500</v>
       </c>
       <c r="E89" s="3">
-        <v>6672600</v>
+        <v>6749500</v>
       </c>
       <c r="F89" s="3">
-        <v>4227100</v>
+        <v>4275800</v>
       </c>
       <c r="G89" s="3">
-        <v>5123100</v>
+        <v>5182200</v>
       </c>
       <c r="H89" s="3">
-        <v>6650300</v>
+        <v>6726900</v>
       </c>
       <c r="I89" s="3">
-        <v>7516500</v>
+        <v>7603200</v>
       </c>
       <c r="J89" s="3">
-        <v>6593000</v>
+        <v>6669000</v>
       </c>
       <c r="K89" s="3">
         <v>7673100</v>
       </c>
       <c r="L89" s="3"/>
     </row>
-    <row r="90" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="90" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -2961,37 +2926,37 @@
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
     </row>
-    <row r="91" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="91" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-4023200</v>
+        <v>-4069600</v>
       </c>
       <c r="E91" s="3">
-        <v>-4875300</v>
+        <v>-4931500</v>
       </c>
       <c r="F91" s="3">
-        <v>-4898400</v>
+        <v>-4954900</v>
       </c>
       <c r="G91" s="3">
-        <v>-4961600</v>
+        <v>-5018900</v>
       </c>
       <c r="H91" s="3">
-        <v>-5180400</v>
+        <v>-5240200</v>
       </c>
       <c r="I91" s="3">
-        <v>-5043500</v>
+        <v>-5101700</v>
       </c>
       <c r="J91" s="3">
-        <v>-5177500</v>
+        <v>-5237200</v>
       </c>
       <c r="K91" s="3">
         <v>-5262400</v>
       </c>
       <c r="L91" s="3"/>
     </row>
-    <row r="92" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="92" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3021,7 +2986,7 @@
       </c>
       <c r="L92" s="3"/>
     </row>
-    <row r="93" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="93" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3051,37 +3016,37 @@
       </c>
       <c r="L93" s="3"/>
     </row>
-    <row r="94" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="94" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-4984000</v>
+        <v>-5041400</v>
       </c>
       <c r="E94" s="3">
-        <v>-3735200</v>
+        <v>-3778300</v>
       </c>
       <c r="F94" s="3">
-        <v>-5586800</v>
+        <v>-5651200</v>
       </c>
       <c r="G94" s="3">
-        <v>-5039000</v>
+        <v>-5097100</v>
       </c>
       <c r="H94" s="3">
-        <v>-5107500</v>
+        <v>-5166400</v>
       </c>
       <c r="I94" s="3">
-        <v>-4861900</v>
+        <v>-4918000</v>
       </c>
       <c r="J94" s="3">
-        <v>-4944500</v>
+        <v>-5001500</v>
       </c>
       <c r="K94" s="3">
         <v>-3532300</v>
       </c>
       <c r="L94" s="3"/>
     </row>
-    <row r="95" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="95" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3095,37 +3060,37 @@
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
     </row>
-    <row r="96" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="96" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-1736200</v>
+        <v>-1756300</v>
       </c>
       <c r="E96" s="3">
-        <v>-1580700</v>
+        <v>-1598900</v>
       </c>
       <c r="F96" s="3">
-        <v>-1396900</v>
+        <v>-1413000</v>
       </c>
       <c r="G96" s="3">
-        <v>-1226500</v>
+        <v>-1240600</v>
       </c>
       <c r="H96" s="3">
-        <v>-1108900</v>
+        <v>-1121700</v>
       </c>
       <c r="I96" s="3">
-        <v>-814900</v>
+        <v>-824300</v>
       </c>
       <c r="J96" s="3">
-        <v>-562600</v>
+        <v>-569100</v>
       </c>
       <c r="K96" s="3">
         <v>-510100</v>
       </c>
       <c r="L96" s="3"/>
     </row>
-    <row r="97" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="97" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3155,7 +3120,7 @@
       </c>
       <c r="L97" s="3"/>
     </row>
-    <row r="98" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="98" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3185,7 +3150,7 @@
       </c>
       <c r="L98" s="3"/>
     </row>
-    <row r="99" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="99" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3215,90 +3180,90 @@
       </c>
       <c r="L99" s="3"/>
     </row>
-    <row r="100" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="100" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-3293900</v>
+        <v>-3331800</v>
       </c>
       <c r="E100" s="3">
-        <v>-3142800</v>
+        <v>-3179000</v>
       </c>
       <c r="F100" s="3">
-        <v>646700</v>
+        <v>654200</v>
       </c>
       <c r="G100" s="3">
-        <v>-1379800</v>
+        <v>-1395700</v>
       </c>
       <c r="H100" s="3">
-        <v>-1393200</v>
+        <v>-1409200</v>
       </c>
       <c r="I100" s="3">
-        <v>-2107600</v>
+        <v>-2131900</v>
       </c>
       <c r="J100" s="3">
-        <v>-1184800</v>
+        <v>-1198400</v>
       </c>
       <c r="K100" s="3">
         <v>-2055800</v>
       </c>
       <c r="L100" s="3"/>
     </row>
-    <row r="101" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="101" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>68500</v>
+        <v>69300</v>
       </c>
       <c r="E101" s="3">
-        <v>-50600</v>
+        <v>-51200</v>
       </c>
       <c r="F101" s="3">
-        <v>-55800</v>
+        <v>-56500</v>
       </c>
       <c r="G101" s="3">
-        <v>219500</v>
+        <v>222100</v>
       </c>
       <c r="H101" s="3">
-        <v>68500</v>
+        <v>69300</v>
       </c>
       <c r="I101" s="3">
-        <v>61000</v>
+        <v>61700</v>
       </c>
       <c r="J101" s="3">
-        <v>-14100</v>
+        <v>-14300</v>
       </c>
       <c r="K101" s="3">
         <v>9200</v>
       </c>
       <c r="L101" s="3"/>
     </row>
-    <row r="102" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="102" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-335600</v>
+        <v>-339500</v>
       </c>
       <c r="E102" s="3">
-        <v>-256000</v>
+        <v>-259000</v>
       </c>
       <c r="F102" s="3">
-        <v>-768800</v>
+        <v>-777600</v>
       </c>
       <c r="G102" s="3">
-        <v>-1076100</v>
+        <v>-1088500</v>
       </c>
       <c r="H102" s="3">
-        <v>218100</v>
+        <v>220600</v>
       </c>
       <c r="I102" s="3">
-        <v>608000</v>
+        <v>615000</v>
       </c>
       <c r="J102" s="3">
-        <v>449500</v>
+        <v>454700</v>
       </c>
       <c r="K102" s="3">
         <v>2094200</v>
